--- a/data/trans_camb/P23_5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_5_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,45</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 10,91</t>
+          <t>-6,4; 18,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 13,48</t>
+          <t>-4,64; 24,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 7,45</t>
+          <t>-13,23; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 4,63</t>
+          <t>0,0; 11,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 6,63</t>
+          <t>0,0; 10,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 7,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 11,71</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 14,09</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 0,0</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>174,79%</t>
+          <t>128,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>287,27%</t>
+          <t>172,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>144,46%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>157,92%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>165,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>226,51%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>285,17%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>11,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,45</t>
+          <t>0,0; 42,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,0</t>
+          <t>0,0; 15,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 1,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 14,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,53</t>
+          <t>0,0; 6,43</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 27,95</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,77</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>584,62%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-34,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>250,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-68,98%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-2,79</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 7,44</t>
+          <t>-10,07; 8,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 4,72</t>
+          <t>-10,08; 8,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 3,75</t>
+          <t>-9,37; 9,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 6,57</t>
+          <t>-4,67; 6,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 3,89</t>
+          <t>-3,47; 9,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,7</t>
+          <t>-7,9; 0,27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 4,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 6,31</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 3,05</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>-18,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-20,15%</t>
+          <t>-16,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,72%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>49,17%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>58,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>-75,94%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-4,91%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>18,05%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-29,54%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-78,77; 429,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,53; 278,98</t>
+          <t>-100,0; 410,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,68; 335,29</t>
+          <t>-84,18; 418,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,68; 419,73</t>
+          <t>-80,98; 630,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,09; 162,72</t>
+          <t>-75,22; 757,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,42; 154,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-72,37; 199,92</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-67,78; 257,66</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-83,3; 138,54</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 5,49</t>
+          <t>-5,29; 9,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 3,62</t>
+          <t>-4,14; 8,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 4,44</t>
+          <t>-4,21; 10,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 6,94</t>
+          <t>-10,91; 3,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,52</t>
+          <t>-9,65; 6,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 4,15</t>
+          <t>-7,43; 9,0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 4,06</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 5,07</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 7,64</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-29,97%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,03%</t>
+          <t>62,86%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>-30,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,85%</t>
+          <t>-12,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,03%</t>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-14,74%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-1,32%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22,36%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-76,01; 257,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-88,04; 212,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-66,11; 103,06</t>
+          <t>-69,98; 1088,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,46; 162,86</t>
+          <t>-78,51; 67,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,95; 90,61</t>
+          <t>-67,31; 100,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,87; 105,25</t>
+          <t>-57,3; 139,36</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-60,65; 99,96</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-52,56; 113,94</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-37,15; 189,45</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>8,14</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>8,17</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7,75</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 19,97</t>
+          <t>-1,27; 31,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 5,15</t>
+          <t>-6,4; 6,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 10,99</t>
+          <t>-1,32; 24,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 4,68</t>
+          <t>-1,32; 16,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,12; 11,69</t>
+          <t>-6,32; 3,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 3,97</t>
+          <t>0,4; 19,48</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 21,04</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 3,85</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 18,84</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>220,62%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>168,55%</t>
+          <t>176,7%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>311,9%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>122,96%</t>
+          <t>-13,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>400,81%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>245,93%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-3,39%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>233,22%</t>
         </is>
       </c>
     </row>
@@ -1339,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-62,11; 969,94</t>
+          <t>-61,64; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-78,46; 310,66</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-45,65; —</t>
+          <t>-73,36; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,12 +1675,27 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 586,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-60,34; 212,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-15,55; 1444,43</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 353,66</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-9,69; 1322,59</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-3,08</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,96</t>
+          <t>-12,19; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,62</t>
+          <t>-4,84; 9,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 3,94</t>
+          <t>-7,43; 5,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 2,63</t>
+          <t>-13,28; 6,17</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 3,29</t>
+          <t>-17,31; 1,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 2,48</t>
+          <t>-9,56; 11,42</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-8,63; 2,42</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-7,81; 3,44</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 8,35</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>100,16%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-35,41%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-48,8%</t>
+          <t>-54,15%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-17,97%</t>
+          <t>-72,1%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-30,59%</t>
+          <t>17,19%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-65,11%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-33,75%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>18,82%</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 208,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1515,12 +1891,27 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-89,89; 222,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-90,65; 211,01</t>
+          <t>-84,07; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-76,72; 562,76</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,03; 6,75</t>
+          <t>0,06; 12,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,33</t>
+          <t>-1,7; 5,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,31</t>
+          <t>-1,61; 5,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,32</t>
+          <t>-2,72; 2,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,4</t>
+          <t>-2,8; 2,55</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,59</t>
+          <t>-1,92; 4,06</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 5,44</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 2,7</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 4,05</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>82,1%</t>
+          <t>117,62%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>33,1%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>44,91%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>-3,27%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>26,25%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>51,72%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>12,65%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>34,12%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 289,3</t>
+          <t>-10,06; 525,14</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-50,94; 106,16</t>
+          <t>-38,64; 265,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-43,28; 80,62</t>
+          <t>-36,49; 266,37</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-45,47; 86,09</t>
+          <t>-48,16; 91,1</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 113,63</t>
+          <t>-53,13; 88,15</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-36,78; 53,49</t>
+          <t>-37,76; 136,91</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-10,25; 186,09</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-32,42; 94,23</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-19,14; 123,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
